--- a/outputs-HGR-r202-archive/g__Dorea_A_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Dorea_A_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,20 +762,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_0.fasta</t>
+          <t>label_13414_6_50_19.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2820441450567578</v>
+        <v>0.2918514997175971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3257687023876308</v>
+        <v>0.2964989273230473</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3921871525556114</v>
+        <v>0.4116495729593556</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3921871525556114</v>
+        <v>0.4116495729593556</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -786,20 +786,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_12.fasta</t>
+          <t>label_13414_6_50_20.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2824106549548227</v>
+        <v>0.3014395638483773</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3284909834690837</v>
+        <v>0.2782456838128068</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3890983615760936</v>
+        <v>0.4203147523388159</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3890983615760936</v>
+        <v>0.4203147523388159</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -810,20 +810,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_22.fasta</t>
+          <t>label_13414_6_50_31.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2911496335751516</v>
+        <v>0.4394542800005551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.332585171468967</v>
+        <v>0.001334807224009324</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3762651949558815</v>
+        <v>0.5592109127754357</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3762651949558815</v>
+        <v>0.5592109127754357</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -834,20 +834,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_26.fasta</t>
+          <t>label_13414_6_50_5.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3048731726471489</v>
+        <v>0.2959552552573804</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2913030065225069</v>
+        <v>0.2876170885083211</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4038238208303441</v>
+        <v>0.4164276562342984</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4038238208303441</v>
+        <v>0.4164276562342984</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -858,20 +858,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_4.fasta</t>
+          <t>label_13414_6_50_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2930623305115636</v>
+        <v>0.239843365333558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3302433543901087</v>
+        <v>0.3541585544704783</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3766943150983279</v>
+        <v>0.4059980801959637</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3766943150983279</v>
+        <v>0.4059980801959637</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -882,20 +882,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_19.fasta</t>
+          <t>label_13414_6_50_11.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2918514997175971</v>
+        <v>0.2506759466994456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2964989273230473</v>
+        <v>0.3432221337953982</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4116495729593556</v>
+        <v>0.4061019195051561</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4116495729593556</v>
+        <v>0.4061019195051561</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -906,20 +906,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_20.fasta</t>
+          <t>label_13414_6_50_13.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3014395638483773</v>
+        <v>0.2439153285359933</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2782456838128068</v>
+        <v>0.3544924447651516</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4203147523388159</v>
+        <v>0.401592226698855</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4203147523388159</v>
+        <v>0.401592226698855</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -930,20 +930,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_31.fasta</t>
+          <t>label_13414_6_50_15.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4394542800005551</v>
+        <v>0.2461745735452077</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001334807224009324</v>
+        <v>0.3577291569496042</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5592109127754357</v>
+        <v>0.3960962695051883</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5592109127754357</v>
+        <v>0.3960962695051883</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -954,20 +954,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_5.fasta</t>
+          <t>label_13414_6_50_3.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2959552552573804</v>
+        <v>0.2390058381626973</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2876170885083211</v>
+        <v>0.3549653185876331</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4164276562342984</v>
+        <v>0.4060288432496695</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4164276562342984</v>
+        <v>0.4060288432496695</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -978,20 +978,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_1.fasta</t>
+          <t>label_13414_6_50_6.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.239843365333558</v>
+        <v>0.2394238142180135</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3541585544704783</v>
+        <v>0.3582096845482537</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4059980801959637</v>
+        <v>0.4023665012337328</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4059980801959637</v>
+        <v>0.4023665012337328</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1002,20 +1002,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_11.fasta</t>
+          <t>label_13414_6_50_7.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2506759466994456</v>
+        <v>0.2311498168770735</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3432221337953982</v>
+        <v>0.3645445992212086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4061019195051561</v>
+        <v>0.4043055839017179</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4061019195051561</v>
+        <v>0.4043055839017179</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_13.fasta</t>
+          <t>label_13414_6_50_9.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2439153285359933</v>
+        <v>0.2424534540200656</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3544924447651516</v>
+        <v>0.350664016715826</v>
       </c>
       <c r="D22" t="n">
-        <v>0.401592226698855</v>
+        <v>0.4068825292641085</v>
       </c>
       <c r="E22" t="n">
-        <v>0.401592226698855</v>
+        <v>0.4068825292641085</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_15.fasta</t>
+          <t>label_13414_6_50_14.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2461745735452077</v>
+        <v>0.2707091366479837</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3577291569496042</v>
+        <v>0.3019194703357006</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3960962695051883</v>
+        <v>0.4273713930163157</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3960962695051883</v>
+        <v>0.4273713930163157</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_3.fasta</t>
+          <t>label_13414_6_50_17.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2390058381626973</v>
+        <v>0.2790228257063279</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3549653185876331</v>
+        <v>0.3020649478238909</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4060288432496695</v>
+        <v>0.4189122264697812</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4060288432496695</v>
+        <v>0.4189122264697812</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,20 +1098,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_6.fasta</t>
+          <t>label_13414_6_50_2.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2394238142180135</v>
+        <v>0.2782067345293402</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3582096845482537</v>
+        <v>0.2962504655612481</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4023665012337328</v>
+        <v>0.4255427999094115</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4023665012337328</v>
+        <v>0.4255427999094115</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1122,20 +1122,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_7.fasta</t>
+          <t>label_13414_6_50_21.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2311498168770735</v>
+        <v>0.2791320270192317</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3645445992212086</v>
+        <v>0.2971138047776888</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4043055839017179</v>
+        <v>0.4237541682030796</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4043055839017179</v>
+        <v>0.4237541682030796</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1146,20 +1146,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_9.fasta</t>
+          <t>label_13414_6_50_24.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2424534540200656</v>
+        <v>0.2827800225450722</v>
       </c>
       <c r="C27" t="n">
-        <v>0.350664016715826</v>
+        <v>0.3004310345902726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4068825292641085</v>
+        <v>0.4167889428646552</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4068825292641085</v>
+        <v>0.4167889428646552</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_14.fasta</t>
+          <t>label_13414_6_50_25.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2707091366479837</v>
+        <v>0.2831476338226177</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3019194703357006</v>
+        <v>0.2988874733639889</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4273713930163157</v>
+        <v>0.4179648928133933</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4273713930163157</v>
+        <v>0.4179648928133933</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1194,20 +1194,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_17.fasta</t>
+          <t>label_13414_6_50_10.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2790228257063279</v>
+        <v>0.2296956562956518</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3020649478238909</v>
+        <v>0.3655588950880465</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4189122264697812</v>
+        <v>0.4047454486163017</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4189122264697812</v>
+        <v>0.4047454486163017</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1218,20 +1218,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_2.fasta</t>
+          <t>label_13414_6_50_16.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2782067345293402</v>
+        <v>0.233284113137145</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2962504655612481</v>
+        <v>0.3702634622146549</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4255427999094115</v>
+        <v>0.3964524246482</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4255427999094115</v>
+        <v>0.3964524246482</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1242,20 +1242,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_21.fasta</t>
+          <t>label_13414_6_50_18.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2791320270192317</v>
+        <v>0.2353649552273746</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2971138047776888</v>
+        <v>0.3725940774012812</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4237541682030796</v>
+        <v>0.3920409673713442</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4237541682030796</v>
+        <v>0.3920409673713442</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1266,20 +1266,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_24.fasta</t>
+          <t>label_13414_6_50_23.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2827800225450722</v>
+        <v>0.2393526417765255</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3004310345902726</v>
+        <v>0.3575789814566934</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4167889428646552</v>
+        <v>0.4030683767667812</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4167889428646552</v>
+        <v>0.4030683767667812</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1290,20 +1290,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_25.fasta</t>
+          <t>label_13414_6_50_27.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2831476338226177</v>
+        <v>0.2902009334283069</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2988874733639889</v>
+        <v>0.2713632462926895</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4179648928133933</v>
+        <v>0.4384358202790035</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4179648928133933</v>
+        <v>0.4384358202790035</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1314,20 +1314,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_10.fasta</t>
+          <t>label_13414_6_50_28.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2296956562956518</v>
+        <v>0.3719766882118726</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3655588950880465</v>
+        <v>0.1684902898014977</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4047454486163017</v>
+        <v>0.4595330219866297</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4047454486163017</v>
+        <v>0.4595330219866297</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1338,20 +1338,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_16.fasta</t>
+          <t>label_13414_6_50_29.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.233284113137145</v>
+        <v>0.3869403795369752</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3702634622146549</v>
+        <v>0.1530585475436247</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3964524246482</v>
+        <v>0.4600010729194</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3964524246482</v>
+        <v>0.4600010729194</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1362,166 +1362,46 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_18.fasta</t>
+          <t>label_13414_6_50_30.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2353649552273746</v>
+        <v>0.5624913733281756</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3725940774012812</v>
+        <v>0.03111506520984779</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3920409673713442</v>
+        <v>0.4063935614619765</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3920409673713442</v>
+        <v>0.5624913733281756</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>s__Dorea_A sp900550865</t>
+          <t>s__Dorea_A longicatena</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_13414_6_50_23.fasta</t>
+          <t>label_13414_6_50_8.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2393526417765255</v>
+        <v>0.233554680621674</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3575789814566934</v>
+        <v>0.3795650410889747</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4030683767667812</v>
+        <v>0.3868802782893513</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4030683767667812</v>
+        <v>0.3868802782893513</v>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_13414_6_50_27.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.2902009334283069</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.2713632462926895</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.4384358202790035</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.4384358202790035</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_13414_6_50_28.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.3719766882118726</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.1684902898014977</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.4595330219866297</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.4595330219866297</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_13414_6_50_29.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.3869403795369752</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.1530585475436247</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4600010729194</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4600010729194</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_13414_6_50_30.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5624913733281756</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.03111506520984779</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4063935614619765</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5624913733281756</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>s__Dorea_A longicatena</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_13414_6_50_8.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.233554680621674</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.3795650410889747</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.3868802782893513</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.3868802782893513</v>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>s__Dorea_A sp900550865</t>
         </is>
@@ -1538,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,20 +1557,20 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_18.fasta</t>
+          <t>label_14207_7_37_1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2902222512063929</v>
+        <v>0.2990013427423909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3306766066548962</v>
+        <v>0.2821847619003979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3791011421387108</v>
+        <v>0.4188138953572112</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3791011421387108</v>
+        <v>0.4188138953572112</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1701,20 +1581,20 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_26.fasta</t>
+          <t>label_14207_7_37_12.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2941737711324596</v>
+        <v>0.3007636638919455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3316705317760654</v>
+        <v>0.2799683902568066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.374155697091475</v>
+        <v>0.4192679458512479</v>
       </c>
       <c r="E7" t="n">
-        <v>0.374155697091475</v>
+        <v>0.4192679458512479</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1725,20 +1605,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_3.fasta</t>
+          <t>label_14207_7_37_13.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2906421273815838</v>
+        <v>0.2988921069036185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3287382061204975</v>
+        <v>0.2823890293859891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3806196664979187</v>
+        <v>0.4187188637103924</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3806196664979187</v>
+        <v>0.4187188637103924</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1749,20 +1629,20 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_33.fasta</t>
+          <t>label_14207_7_37_15.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2928870879827443</v>
+        <v>0.2919811936680657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.33345060303026</v>
+        <v>0.2952884460550081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3736623089869957</v>
+        <v>0.4127303602769262</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3736623089869957</v>
+        <v>0.4127303602769262</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1773,20 +1653,20 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_5.fasta</t>
+          <t>label_14207_7_37_2.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2836114833130501</v>
+        <v>0.2927642451752362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3231085840326031</v>
+        <v>0.2941626033699338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3932799326543466</v>
+        <v>0.4130731514548299</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3932799326543466</v>
+        <v>0.4130731514548299</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1797,20 +1677,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_7.fasta</t>
+          <t>label_14207_7_37_24.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2826424444485535</v>
+        <v>0.2928585967568713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3241676469601035</v>
+        <v>0.2951574556982116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3931899085913431</v>
+        <v>0.4119839475449171</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3931899085913431</v>
+        <v>0.4119839475449171</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1821,20 +1701,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_1.fasta</t>
+          <t>label_14207_7_37_29.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2990013427423909</v>
+        <v>0.299707391624522</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2821847619003979</v>
+        <v>0.2819165224501681</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4188138953572112</v>
+        <v>0.4183760859253099</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4188138953572112</v>
+        <v>0.4183760859253099</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1845,20 +1725,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_12.fasta</t>
+          <t>label_14207_7_37_30.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3007636638919455</v>
+        <v>0.2958013875747234</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2799683902568066</v>
+        <v>0.289115914497979</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4192679458512479</v>
+        <v>0.4150826979272976</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4192679458512479</v>
+        <v>0.4150826979272976</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1869,20 +1749,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_13.fasta</t>
+          <t>label_14207_7_37_31.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2988921069036185</v>
+        <v>0.3021467303759144</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2823890293859891</v>
+        <v>0.2769861849194203</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4187188637103924</v>
+        <v>0.4208670847046654</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4187188637103924</v>
+        <v>0.4208670847046654</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1893,20 +1773,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_15.fasta</t>
+          <t>label_14207_7_37_4.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2919811936680657</v>
+        <v>0.2872998914585518</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2952884460550081</v>
+        <v>0.3048959125668182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4127303602769262</v>
+        <v>0.4078041959746299</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4127303602769262</v>
+        <v>0.4078041959746299</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1917,20 +1797,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_2.fasta</t>
+          <t>label_14207_7_37_9.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2927642451752362</v>
+        <v>0.2976613723910405</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2941626033699338</v>
+        <v>0.2845638971303447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4130731514548299</v>
+        <v>0.4177747304786148</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4130731514548299</v>
+        <v>0.4177747304786148</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1941,20 +1821,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_24.fasta</t>
+          <t>label_14207_7_37_10.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2928585967568713</v>
+        <v>0.2320908970215514</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2951574556982116</v>
+        <v>0.3583786495301399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4119839475449171</v>
+        <v>0.4095304534483088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4119839475449171</v>
+        <v>0.4095304534483088</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1965,20 +1845,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_29.fasta</t>
+          <t>label_14207_7_37_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.299707391624522</v>
+        <v>0.2400531833214063</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2819165224501681</v>
+        <v>0.3538624187980772</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4183760859253099</v>
+        <v>0.4060843978805166</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4183760859253099</v>
+        <v>0.4060843978805166</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1989,20 +1869,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_30.fasta</t>
+          <t>label_14207_7_37_20.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2958013875747234</v>
+        <v>0.2442966509145638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.289115914497979</v>
+        <v>0.3465905513391447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4150826979272976</v>
+        <v>0.4091127977462914</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4150826979272976</v>
+        <v>0.4091127977462914</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2013,20 +1893,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_31.fasta</t>
+          <t>label_14207_7_37_22.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3021467303759144</v>
+        <v>0.2523570218595935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2769861849194203</v>
+        <v>0.3554104520138018</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4208670847046654</v>
+        <v>0.3922325261266048</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4208670847046654</v>
+        <v>0.3922325261266048</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2037,20 +1917,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_4.fasta</t>
+          <t>label_14207_7_37_32.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2872998914585518</v>
+        <v>0.2998151552869513</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3048959125668182</v>
+        <v>0.2291448785030312</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4078041959746299</v>
+        <v>0.4710399662100176</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4078041959746299</v>
+        <v>0.4710399662100176</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2061,20 +1941,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_9.fasta</t>
+          <t>label_14207_7_37_35.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2976613723910405</v>
+        <v>0.3562286104976029</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2845638971303447</v>
+        <v>0.123076307405337</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4177747304786148</v>
+        <v>0.5206950820970602</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4177747304786148</v>
+        <v>0.5206950820970602</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2085,20 +1965,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_10.fasta</t>
+          <t>label_14207_7_37_0.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2320908970215514</v>
+        <v>0.2777185838048262</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3583786495301399</v>
+        <v>0.2989934736403554</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4095304534483088</v>
+        <v>0.4232879425548184</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4095304534483088</v>
+        <v>0.4232879425548184</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2109,20 +1989,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_19.fasta</t>
+          <t>label_14207_7_37_11.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2400531833214063</v>
+        <v>0.2766112120508808</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3538624187980772</v>
+        <v>0.2954763730495108</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4060843978805166</v>
+        <v>0.4279124148996084</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4060843978805166</v>
+        <v>0.4279124148996084</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2133,20 +2013,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_20.fasta</t>
+          <t>label_14207_7_37_16.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2442966509145638</v>
+        <v>0.274458472902834</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3465905513391447</v>
+        <v>0.2969799474922749</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4091127977462914</v>
+        <v>0.4285615796048911</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4091127977462914</v>
+        <v>0.4285615796048911</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2157,20 +2037,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_22.fasta</t>
+          <t>label_14207_7_37_17.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2523570218595935</v>
+        <v>0.2788234335025253</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3554104520138018</v>
+        <v>0.3002905852147996</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3922325261266048</v>
+        <v>0.4208859812826751</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3922325261266048</v>
+        <v>0.4208859812826751</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2181,20 +2061,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_32.fasta</t>
+          <t>label_14207_7_37_21.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2998151552869513</v>
+        <v>0.2803523077115687</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2291448785030312</v>
+        <v>0.3009955184724397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4710399662100176</v>
+        <v>0.4186521738159917</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4710399662100176</v>
+        <v>0.4186521738159917</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2205,20 +2085,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_35.fasta</t>
+          <t>label_14207_7_37_23.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3562286104976029</v>
+        <v>0.2804167693820289</v>
       </c>
       <c r="C28" t="n">
-        <v>0.123076307405337</v>
+        <v>0.3002809316963903</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5206950820970602</v>
+        <v>0.4193022989215808</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5206950820970602</v>
+        <v>0.4193022989215808</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2229,20 +2109,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_0.fasta</t>
+          <t>label_14207_7_37_27.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2777185838048262</v>
+        <v>0.2736088274483297</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2989934736403554</v>
+        <v>0.2995042517844199</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4232879425548184</v>
+        <v>0.4268869207672504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4232879425548184</v>
+        <v>0.4268869207672504</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2253,20 +2133,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_11.fasta</t>
+          <t>label_14207_7_37_28.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2766112120508808</v>
+        <v>0.2845541782533244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2954763730495108</v>
+        <v>0.3022289905286062</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4279124148996084</v>
+        <v>0.4132168312180694</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4279124148996084</v>
+        <v>0.4132168312180694</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2277,20 +2157,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_16.fasta</t>
+          <t>label_14207_7_37_6.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.274458472902834</v>
+        <v>0.2725355205049446</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2969799474922749</v>
+        <v>0.2975675733427643</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4285615796048911</v>
+        <v>0.429896906152291</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4285615796048911</v>
+        <v>0.429896906152291</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2301,20 +2181,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_17.fasta</t>
+          <t>label_14207_7_37_14.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2788234335025253</v>
+        <v>0.2467059033377043</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3002905852147996</v>
+        <v>0.3612533907756751</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4208859812826751</v>
+        <v>0.3920407058866205</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4208859812826751</v>
+        <v>0.3920407058866205</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2325,20 +2205,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_21.fasta</t>
+          <t>label_14207_7_37_25.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2803523077115687</v>
+        <v>0.2230829239991179</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3009955184724397</v>
+        <v>0.3806289115650973</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4186521738159917</v>
+        <v>0.3962881644357848</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4186521738159917</v>
+        <v>0.3962881644357848</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2349,20 +2229,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_23.fasta</t>
+          <t>label_14207_7_37_34.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2804167693820289</v>
+        <v>0.262836607931574</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3002809316963903</v>
+        <v>0.3251313374345557</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4193022989215808</v>
+        <v>0.4120320546338702</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4193022989215808</v>
+        <v>0.4120320546338702</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2373,166 +2253,22 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_37_27.fasta</t>
+          <t>label_14207_7_37_8.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2736088274483297</v>
+        <v>0.2300036033764568</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2995042517844199</v>
+        <v>0.3796615963196198</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4268869207672504</v>
+        <v>0.3903348003039234</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4268869207672504</v>
+        <v>0.3903348003039234</v>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_37_28.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.2845541782533244</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.3022289905286062</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.4132168312180694</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.4132168312180694</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_37_6.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.2725355205049446</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2975675733427643</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.429896906152291</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.429896906152291</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_37_14.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.2467059033377043</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.3612533907756751</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.3920407058866205</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.3920407058866205</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_37_25.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.2230829239991179</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.3806289115650973</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.3962881644357848</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.3962881644357848</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_37_34.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.262836607931574</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.3251313374345557</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4120320546338702</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4120320546338702</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_14207_7_37_8.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.2300036033764568</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.3796615963196198</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.3903348003039234</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3903348003039234</v>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>s__Dorea_A sp900550865</t>
         </is>
@@ -2549,7 +2285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2832,20 +2568,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_10.fasta</t>
+          <t>label_UMGS1335_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2888703895065051</v>
+        <v>0.3029298187784432</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3343652708329118</v>
+        <v>0.2751298996542403</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3767643396605832</v>
+        <v>0.4219402815673165</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3767643396605832</v>
+        <v>0.4219402815673165</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2856,20 +2592,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_14.fasta</t>
+          <t>label_UMGS1335_1.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2871548958153619</v>
+        <v>0.2964849417706403</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3309539761398478</v>
+        <v>0.2873676809716233</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3818911280447904</v>
+        <v>0.4161473772577365</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3818911280447904</v>
+        <v>0.4161473772577365</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2880,20 +2616,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_16.fasta</t>
+          <t>label_UMGS1335_21.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2924065840495296</v>
+        <v>0.2949484447690892</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3341680778544081</v>
+        <v>0.2907202958355158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3734253380960622</v>
+        <v>0.4143312593953951</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3734253380960622</v>
+        <v>0.4143312593953951</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2904,20 +2640,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_18.fasta</t>
+          <t>label_UMGS1335_25.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2923425594421868</v>
+        <v>0.2988735151998388</v>
       </c>
       <c r="C15" t="n">
-        <v>0.334823137717077</v>
+        <v>0.2836845036995869</v>
       </c>
       <c r="D15" t="n">
-        <v>0.372834302840736</v>
+        <v>0.4174419811005742</v>
       </c>
       <c r="E15" t="n">
-        <v>0.372834302840736</v>
+        <v>0.4174419811005742</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2928,20 +2664,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_26.fasta</t>
+          <t>label_UMGS1335_30.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2928482537753302</v>
+        <v>0.3018770602480183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3319225260254778</v>
+        <v>0.277700084049605</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3752292201991919</v>
+        <v>0.4204228557023768</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3752292201991919</v>
+        <v>0.4204228557023768</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2952,20 +2688,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_27.fasta</t>
+          <t>label_UMGS1335_35.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2964328377967307</v>
+        <v>0.3077596339667919</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3326405795233223</v>
+        <v>0.2654793591813214</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3709265826799469</v>
+        <v>0.4267610068518868</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3709265826799469</v>
+        <v>0.4267610068518868</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2976,20 +2712,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_29.fasta</t>
+          <t>label_UMGS1335_4.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2893133148696301</v>
+        <v>0.2927889154129704</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3321535051073595</v>
+        <v>0.2948796455988987</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3785331800230104</v>
+        <v>0.412331438988131</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3785331800230104</v>
+        <v>0.412331438988131</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3000,20 +2736,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_38.fasta</t>
+          <t>label_UMGS1335_45.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3020106905096901</v>
+        <v>0.3586621530489934</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3189520665184554</v>
+        <v>0.1595151675357876</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3790372429718544</v>
+        <v>0.4818226794152189</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3790372429718544</v>
+        <v>0.4818226794152189</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3024,20 +2760,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_39.fasta</t>
+          <t>label_UMGS1335_13.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3017120190094014</v>
+        <v>0.2511360872327543</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3074337300932857</v>
+        <v>0.3585948701062184</v>
       </c>
       <c r="D20" t="n">
-        <v>0.390854250897313</v>
+        <v>0.3902690426610274</v>
       </c>
       <c r="E20" t="n">
-        <v>0.390854250897313</v>
+        <v>0.3902690426610274</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3048,20 +2784,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_42.fasta</t>
+          <t>label_UMGS1335_15.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3136190445463486</v>
+        <v>0.2404979893266055</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2920173523365112</v>
+        <v>0.3686771433521603</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3943636031171403</v>
+        <v>0.3908248673212342</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3943636031171403</v>
+        <v>0.3908248673212342</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3072,20 +2808,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_44.fasta</t>
+          <t>label_UMGS1335_19.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.302112281518417</v>
+        <v>0.2518086820544991</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2909572109702259</v>
+        <v>0.3525253706763116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4069305075113571</v>
+        <v>0.3956659472691892</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4069305075113571</v>
+        <v>0.3956659472691892</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3096,20 +2832,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_46.fasta</t>
+          <t>label_UMGS1335_23.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3678988252561078</v>
+        <v>0.2429436319629344</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1756600306283891</v>
+        <v>0.3597889526708865</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4564411441155031</v>
+        <v>0.397267415366179</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4564411441155031</v>
+        <v>0.397267415366179</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3120,20 +2856,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_0.fasta</t>
+          <t>label_UMGS1335_28.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3029298187784432</v>
+        <v>0.2545932601092789</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2751298996542403</v>
+        <v>0.3513804092993785</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4219402815673165</v>
+        <v>0.3940263305913425</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4219402815673165</v>
+        <v>0.3940263305913425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3144,20 +2880,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_1.fasta</t>
+          <t>label_UMGS1335_33.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2964849417706403</v>
+        <v>0.26958639604933</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2873676809716233</v>
+        <v>0.3313293640289355</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4161473772577365</v>
+        <v>0.3990842399217344</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4161473772577365</v>
+        <v>0.3990842399217344</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3168,20 +2904,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_21.fasta</t>
+          <t>label_UMGS1335_37.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2949484447690892</v>
+        <v>0.2923885344720842</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2907202958355158</v>
+        <v>0.2758943765247349</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4143312593953951</v>
+        <v>0.4317170890031808</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4143312593953951</v>
+        <v>0.4317170890031808</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3192,20 +2928,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_25.fasta</t>
+          <t>label_UMGS1335_7.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2988735151998388</v>
+        <v>0.2618001366765607</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2836845036995869</v>
+        <v>0.3426652067331866</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4174419811005742</v>
+        <v>0.3955346565902528</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4174419811005742</v>
+        <v>0.3955346565902528</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3216,20 +2952,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_30.fasta</t>
+          <t>label_UMGS1335_9.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3018770602480183</v>
+        <v>0.2481695541415795</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277700084049605</v>
+        <v>0.3424507986841203</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4204228557023768</v>
+        <v>0.4093796471743002</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4204228557023768</v>
+        <v>0.4093796471743002</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3240,20 +2976,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_35.fasta</t>
+          <t>label_UMGS1335_11.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3077596339667919</v>
+        <v>0.2772109060094516</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2654793591813214</v>
+        <v>0.2998177074006073</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4267610068518868</v>
+        <v>0.422971386589941</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4267610068518868</v>
+        <v>0.422971386589941</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3264,20 +3000,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_4.fasta</t>
+          <t>label_UMGS1335_17.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2927889154129704</v>
+        <v>0.2763954250434809</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2948796455988987</v>
+        <v>0.299503020451575</v>
       </c>
       <c r="D30" t="n">
-        <v>0.412331438988131</v>
+        <v>0.4241015545049441</v>
       </c>
       <c r="E30" t="n">
-        <v>0.412331438988131</v>
+        <v>0.4241015545049441</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3288,20 +3024,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_45.fasta</t>
+          <t>label_UMGS1335_20.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3586621530489934</v>
+        <v>0.2817664203267522</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1595151675357876</v>
+        <v>0.3075171654628904</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4818226794152189</v>
+        <v>0.4107164142103575</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4818226794152189</v>
+        <v>0.4107164142103575</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3312,20 +3048,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_13.fasta</t>
+          <t>label_UMGS1335_24.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2511360872327543</v>
+        <v>0.2775778227416794</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3585948701062184</v>
+        <v>0.3010644483293279</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3902690426610274</v>
+        <v>0.4213577289289926</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3902690426610274</v>
+        <v>0.4213577289289926</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3336,20 +3072,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_15.fasta</t>
+          <t>label_UMGS1335_31.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2404979893266055</v>
+        <v>0.2829158208698051</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3686771433521603</v>
+        <v>0.3050182107257269</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3908248673212342</v>
+        <v>0.4120659684044679</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3908248673212342</v>
+        <v>0.4120659684044679</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3360,20 +3096,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_19.fasta</t>
+          <t>label_UMGS1335_32.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2518086820544991</v>
+        <v>0.2795002720452637</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3525253706763116</v>
+        <v>0.3022827948287308</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3956659472691892</v>
+        <v>0.4182169331260054</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3956659472691892</v>
+        <v>0.4182169331260054</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3384,20 +3120,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_23.fasta</t>
+          <t>label_UMGS1335_34.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2429436319629344</v>
+        <v>0.2786932213463954</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3597889526708865</v>
+        <v>0.3013519959356716</v>
       </c>
       <c r="D35" t="n">
-        <v>0.397267415366179</v>
+        <v>0.419954782717933</v>
       </c>
       <c r="E35" t="n">
-        <v>0.397267415366179</v>
+        <v>0.419954782717933</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3408,20 +3144,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_28.fasta</t>
+          <t>label_UMGS1335_5.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2545932601092789</v>
+        <v>0.2821714557647315</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3513804092993785</v>
+        <v>0.2983276195783862</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3940263305913425</v>
+        <v>0.4195009246568821</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3940263305913425</v>
+        <v>0.4195009246568821</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3432,20 +3168,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_33.fasta</t>
+          <t>label_UMGS1335_12.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.26958639604933</v>
+        <v>0.2390031018121115</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3313293640289355</v>
+        <v>0.3638447613706513</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3990842399217344</v>
+        <v>0.3971521368172371</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3990842399217344</v>
+        <v>0.3971521368172371</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3456,20 +3192,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_37.fasta</t>
+          <t>label_UMGS1335_2.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2923885344720842</v>
+        <v>0.2482485871882915</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2758943765247349</v>
+        <v>0.3619365465764151</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4317170890031808</v>
+        <v>0.3898148662352934</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4317170890031808</v>
+        <v>0.3898148662352934</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3480,20 +3216,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_7.fasta</t>
+          <t>label_UMGS1335_22.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2618001366765607</v>
+        <v>0.230534132172983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3426652067331866</v>
+        <v>0.3644938299937762</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3955346565902528</v>
+        <v>0.4049720378332408</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3955346565902528</v>
+        <v>0.4049720378332408</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3504,20 +3240,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_9.fasta</t>
+          <t>label_UMGS1335_3.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2481695541415795</v>
+        <v>0.2343453527097104</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3424507986841203</v>
+        <v>0.3683780475720183</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4093796471743002</v>
+        <v>0.3972765997182713</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4093796471743002</v>
+        <v>0.3972765997182713</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3528,20 +3264,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_11.fasta</t>
+          <t>label_UMGS1335_36.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2772109060094516</v>
+        <v>0.2596878407813475</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2998177074006073</v>
+        <v>0.3142290860777877</v>
       </c>
       <c r="D41" t="n">
-        <v>0.422971386589941</v>
+        <v>0.4260830731408647</v>
       </c>
       <c r="E41" t="n">
-        <v>0.422971386589941</v>
+        <v>0.4260830731408647</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3552,20 +3288,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_17.fasta</t>
+          <t>label_UMGS1335_40.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2763954250434809</v>
+        <v>0.3148765445580625</v>
       </c>
       <c r="C42" t="n">
-        <v>0.299503020451575</v>
+        <v>0.2546854709139635</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4241015545049441</v>
+        <v>0.4304379845279739</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4241015545049441</v>
+        <v>0.4304379845279739</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3576,20 +3312,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_20.fasta</t>
+          <t>label_UMGS1335_41.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2817664203267522</v>
+        <v>0.2951051601565639</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3075171654628904</v>
+        <v>0.287434892028458</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4107164142103575</v>
+        <v>0.417459947814978</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4107164142103575</v>
+        <v>0.417459947814978</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3600,20 +3336,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_24.fasta</t>
+          <t>label_UMGS1335_43.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2775778227416794</v>
+        <v>0.3234451542481084</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3010644483293279</v>
+        <v>0.2409410680560755</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4213577289289926</v>
+        <v>0.4356137776958161</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4213577289289926</v>
+        <v>0.4356137776958161</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3624,20 +3360,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_31.fasta</t>
+          <t>label_UMGS1335_6.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2829158208698051</v>
+        <v>0.2306799202090936</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3050182107257269</v>
+        <v>0.3607743629292702</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4120659684044679</v>
+        <v>0.4085457168616363</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4120659684044679</v>
+        <v>0.4085457168616363</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3648,310 +3384,22 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1335_32.fasta</t>
+          <t>label_UMGS1335_8.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2795002720452637</v>
+        <v>0.2337259437337651</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3022827948287308</v>
+        <v>0.3597034810048824</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4182169331260054</v>
+        <v>0.4065705752613525</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4182169331260054</v>
+        <v>0.4065705752613525</v>
       </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_34.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.2786932213463954</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.3013519959356716</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.419954782717933</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.419954782717933</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_5.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.2821714557647315</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.2983276195783862</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4195009246568821</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.4195009246568821</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_12.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.2390031018121115</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.3638447613706513</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.3971521368172371</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.3971521368172371</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_2.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2482485871882915</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.3619365465764151</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.3898148662352934</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.3898148662352934</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_22.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.230534132172983</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.3644938299937762</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.4049720378332408</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.4049720378332408</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_3.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.2343453527097104</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.3683780475720183</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.3972765997182713</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.3972765997182713</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_36.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.2596878407813475</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.3142290860777877</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.4260830731408647</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.4260830731408647</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_40.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.3148765445580625</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.2546854709139635</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.4304379845279739</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.4304379845279739</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_41.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.2951051601565639</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.287434892028458</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.417459947814978</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.417459947814978</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_43.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.3234451542481084</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.2409410680560755</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4356137776958161</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.4356137776958161</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_6.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.2306799202090936</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.3607743629292702</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.4085457168616363</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.4085457168616363</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1335_8.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.2337259437337651</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.3597034810048824</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.4065705752613525</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.4065705752613525</v>
-      </c>
-      <c r="F58" t="inlineStr">
         <is>
           <t>s__Dorea_A sp900550865</t>
         </is>
